--- a/LaTeX/Experiment/Results/NonCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/NonCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2Molar" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
   <si>
     <t>Time (s)</t>
   </si>
@@ -45,13 +45,23 @@
   <si>
     <t>Volume of Hydrogen Produced (ml)</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Sulfuric Acid Concentration (Molar)</t>
+  </si>
+  <si>
+    <t>Initial Rate of Reaction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -243,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -264,6 +274,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176389504"/>
-        <c:axId val="175867392"/>
+        <c:axId val="100913152"/>
+        <c:axId val="100915072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176389504"/>
+        <c:axId val="100913152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175867392"/>
+        <c:crossAx val="100915072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175867392"/>
+        <c:axId val="100915072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176389504"/>
+        <c:crossAx val="100913152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,7 +721,1467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show How Much</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of 3.6 Molar Sulfuric Acid.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2744409555833677E-2"/>
+                  <c:y val="-4.3857639246533159E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.6Molar'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="154224512"/>
+        <c:axId val="154230784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154224512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154230784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154230784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154224512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show How Much</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of 4.0 Molar Sulfuric Acid.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4Molar'!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Repeat 2</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4Molar'!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Repeat 3</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4Molar'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153987328"/>
+        <c:axId val="154001792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153987328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154001792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154001792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153987328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show How Much</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of 4.0 Molar Sulfuric Acid.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4Molar'!$M$5:$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 8.666666667 20.33333333 30 39 49.83333333 58.83333333 66.5 74.5 79 85.83333333</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="-9"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3610285339307918E-2"/>
+                  <c:y val="-2.3898117702208146E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4Molar'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.833333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="154093056"/>
+        <c:axId val="154094976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="154093056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154094976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="154094976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154093056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Progress Graph for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> the Non-Catalysed Reaction of Zinc and Sulfuric Acid</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7810000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>9.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39523072"/>
+        <c:axId val="39524608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39523072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Sulfuric Acid (mol dm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39524608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39524608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Initial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Rate of Reaction (mol dm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39523072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show The Volume Of Hydrogen Produced</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>2.0 Molar Sulfuric Acid</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="-1.6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4240591045052261E-2"/>
+                  <c:y val="-3.6115926137768595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 1.6227x - 1.6
+R² = 0.9958</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2Molar'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102329728"/>
+        <c:axId val="102331904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102329728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102331904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102331904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102329728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1039,11 +2519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167492608"/>
-        <c:axId val="175879680"/>
+        <c:axId val="100659200"/>
+        <c:axId val="100661120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167492608"/>
+        <c:axId val="100659200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175879680"/>
+        <c:crossAx val="100661120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +2560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175879680"/>
+        <c:axId val="100661120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167492608"/>
+        <c:crossAx val="100659200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,7 +2612,264 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show How Much</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of 2.4 Molar Sulfuric Acid.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="-3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2127086599546342E-2"/>
+                  <c:y val="-7.1590425970770824E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.4Molar'!$L$5:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.833333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100678656"/>
+        <c:axId val="100693120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100678656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100693120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100693120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100678656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1470,11 +3207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162256384"/>
-        <c:axId val="162810112"/>
+        <c:axId val="100750848"/>
+        <c:axId val="100752768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162256384"/>
+        <c:axId val="100750848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +3240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162810112"/>
+        <c:crossAx val="100752768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +3248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162810112"/>
+        <c:axId val="100752768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +3278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162256384"/>
+        <c:crossAx val="100750848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1563,7 +3300,264 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show How Much</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of 2.8 Molar Sulfuric Acid.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="-5.5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0548942033504079E-2"/>
+                  <c:y val="-1.5583212837950707E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2.8Molar'!$L$5:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="100786944"/>
+        <c:axId val="100788864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100786944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100788864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100788864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100786944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1901,11 +3895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176247552"/>
-        <c:axId val="176249472"/>
+        <c:axId val="142828288"/>
+        <c:axId val="142830208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176247552"/>
+        <c:axId val="142828288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +3928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176249472"/>
+        <c:crossAx val="142830208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +3936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176249472"/>
+        <c:axId val="142830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +3966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176247552"/>
+        <c:crossAx val="142828288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1994,7 +3988,265 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph To Show How Much</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of 3.2 Molar Sulfuric Acid.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Repeat 1</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:intercept val="-9.6999999999999993"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2333315236005908E-2"/>
+                  <c:y val="-5.5969547043096458E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3.2Molar'!$M$5:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.166666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148508672"/>
+        <c:axId val="148510592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148508672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148510592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148510592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148508672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2332,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="164664832"/>
-        <c:axId val="165090048"/>
+        <c:axId val="148564224"/>
+        <c:axId val="148566400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="164664832"/>
+        <c:axId val="148564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +4617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165090048"/>
+        <c:crossAx val="148566400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2373,7 +4625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165090048"/>
+        <c:axId val="148566400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,438 +4655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164664832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Graph To Show How Much</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Hydrogen Was Produced From 1.0 g of Zinc and 40 cm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="30000"/>
-              <a:t>3</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of 4.0 Molar Sulfuric Acid.</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Repeat 1</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4Molar'!$C$5:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>73.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Repeat 2</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4Molar'!$D$5:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Repeat 3</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'2.4Molar'!$B$5:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4Molar'!$E$5:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>84.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="179241728"/>
-        <c:axId val="182426240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="179241728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182426240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="182426240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Volume of Hydrogen Produced (ml)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179241728"/>
+        <c:crossAx val="148564224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2860,16 +4681,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2892,16 +4713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2910,8 +4731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="4400550"/>
-          <a:ext cx="1924050" cy="485775"/>
+          <a:off x="9525" y="3771900"/>
+          <a:ext cx="2219325" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2964,6 +4785,38 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6164</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137302</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3049,16 +4902,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>195261</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>211139</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>306389</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3072,6 +4925,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487365</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>61914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3160,15 +5045,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>430215</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>201615</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>100014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3185,6 +5070,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>258765</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3273,16 +5190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>430215</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>496890</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3298,6 +5215,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125415</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3386,16 +5335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>430215</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>411165</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3411,6 +5360,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>430215</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3499,16 +5480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>430215</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42864</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>354015</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3516,6 +5497,73 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449265</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>360365</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3991,10 +6039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,8 +6053,8 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -4014,7 +6062,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -4027,8 +6075,11 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -4041,8 +6092,16 @@
       <c r="E5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="7">
+        <f>D5-0.5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>(C5+E5+F5)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -4055,8 +6114,16 @@
       <c r="E6" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F15" si="0">D6-0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G15" si="1">(C6+E6+F6)/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -4069,8 +6136,16 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -4083,8 +6158,16 @@
       <c r="E8" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -4097,8 +6180,16 @@
       <c r="E9" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -4111,8 +6202,16 @@
       <c r="E10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -4125,8 +6224,16 @@
       <c r="E11" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -4139,8 +6246,16 @@
       <c r="E12" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -4153,8 +6268,16 @@
       <c r="E13" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -4167,8 +6290,16 @@
       <c r="E14" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>14.833333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -4181,8 +6312,16 @@
       <c r="E15" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -4190,13 +6329,85 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f>D5-0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:E29" si="2">D6-0.5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4207,10 +6418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,18 +6430,26 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -4243,8 +6462,23 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -4257,8 +6491,26 @@
       <c r="E5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>C5-0.5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>D5-0.5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>(H5+I5+J5)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -4271,8 +6523,26 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="4">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H15" si="0">C6-0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I15" si="1">D6-0.5</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L15" si="2">(H6+I6+J6)/3</f>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -4285,8 +6555,26 @@
       <c r="E7" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -4299,8 +6587,26 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="4">
+        <v>90</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -4313,8 +6619,26 @@
       <c r="E9" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -4327,8 +6651,26 @@
       <c r="E10" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="4">
+        <v>150</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J10" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -4341,8 +6683,26 @@
       <c r="E11" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="4">
+        <v>180</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>16.833333333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -4355,8 +6715,26 @@
       <c r="E12" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="4">
+        <v>210</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>19.833333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -4369,8 +6747,26 @@
       <c r="E13" s="2">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="4">
+        <v>240</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>22.833333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -4383,8 +6779,26 @@
       <c r="E14" s="2">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="4">
+        <v>270</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -4397,8 +6811,26 @@
       <c r="E15" s="2">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>300</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J15" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>28.833333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -4422,10 +6854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="G3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,18 +6866,27 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -4458,8 +6899,23 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -4472,8 +6928,27 @@
       <c r="E5" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>C5-1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>D5-0.5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>E5-0.5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>(H5+I5+J5)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -4486,8 +6961,27 @@
       <c r="E6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="4">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H15" si="0">C6-1</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I15" si="1">D6-0.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" ref="J6:J15" si="2">E6-0.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L15" si="3">(H6+I6+J6)/3</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -4500,8 +6994,27 @@
       <c r="E7" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>60</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -4514,8 +7027,27 @@
       <c r="E8" s="2">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="4">
+        <v>90</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -4528,8 +7060,27 @@
       <c r="E9" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="4">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>30.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -4542,8 +7093,27 @@
       <c r="E10" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="4">
+        <v>150</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>27.833333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -4556,8 +7126,27 @@
       <c r="E11" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="4">
+        <v>180</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>34.333333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -4570,8 +7159,27 @@
       <c r="E12" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="4">
+        <v>210</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>40.166666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -4584,8 +7192,27 @@
       <c r="E13" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="4">
+        <v>240</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>51.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -4598,8 +7225,27 @@
       <c r="E14" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="4">
+        <v>270</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>50.166666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -4612,8 +7258,27 @@
       <c r="E15" s="2">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>300</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>54.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -4637,10 +7302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H3:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,18 +7314,25 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -4673,8 +7345,23 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -4687,8 +7374,27 @@
       <c r="E5" s="7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>C5-1.5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>D5-1</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f>E5-1.5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>(I5+J5+K5)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -4701,8 +7407,27 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I15" si="0">C6-1.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:J15" si="1">D6-1</f>
+        <v>13</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K15" si="2">E6-1.5</f>
+        <v>10.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -4715,8 +7440,27 @@
       <c r="E7" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>24.666666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -4729,8 +7473,27 @@
       <c r="E8" s="2">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>90</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>37.166666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -4743,8 +7506,27 @@
       <c r="E9" s="2">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="4">
+        <v>120</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>46.166666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -4757,8 +7539,27 @@
       <c r="E10" s="2">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4">
+        <v>150</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -4771,8 +7572,27 @@
       <c r="E11" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="4">
+        <v>180</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -4785,8 +7605,27 @@
       <c r="E12" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="4">
+        <v>210</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>69.166666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -4799,8 +7638,27 @@
       <c r="E13" s="2">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4">
+        <v>240</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>78.5</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="1"/>
+        <v>77.5</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -4813,8 +7671,27 @@
       <c r="E14" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4">
+        <v>270</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -4827,8 +7704,27 @@
       <c r="E15" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>300</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>89.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -4852,10 +7748,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H3:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4864,18 +7760,27 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -4888,8 +7793,23 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -4902,8 +7822,27 @@
       <c r="E5" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>C5-1</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>D5-1</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <f>E5-0.5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>(I5+J5+K5)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -4916,8 +7855,27 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I15" si="0">C6-1</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:J15" si="1">D6-1</f>
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K15" si="2">E6-0.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -4930,8 +7888,27 @@
       <c r="E7" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -4944,8 +7921,27 @@
       <c r="E8" s="2">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>90</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -4958,8 +7954,27 @@
       <c r="E9" s="2">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="4">
+        <v>120</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>36.166666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -4972,8 +7987,27 @@
       <c r="E10" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4">
+        <v>150</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>46.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>44.333333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -4986,8 +8020,27 @@
       <c r="E11" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="4">
+        <v>180</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>52.666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -5000,8 +8053,27 @@
       <c r="E12" s="2">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="4">
+        <v>210</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -5014,8 +8086,27 @@
       <c r="E13" s="2">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4">
+        <v>240</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -5028,8 +8119,27 @@
       <c r="E14" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4">
+        <v>270</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>79.166666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -5042,8 +8152,27 @@
       <c r="E15" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>300</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="1"/>
+        <v>88.5</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>88.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>87.666666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -5067,10 +8196,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,18 +8208,27 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -5103,8 +8241,23 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -5117,8 +8270,27 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>C5-1</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>D5-1</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f>E5-1</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>(I5+J5+K5)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -5131,8 +8303,27 @@
       <c r="E6" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:K15" si="0">C6-1</f>
+        <v>11</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="1">(I6+J6+K6)/3</f>
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -5145,8 +8336,27 @@
       <c r="E7" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>20.333333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -5159,8 +8369,27 @@
       <c r="E8" s="2">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>90</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -5173,8 +8402,27 @@
       <c r="E9" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="4">
+        <v>120</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -5187,8 +8435,27 @@
       <c r="E10" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="4">
+        <v>150</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>49.833333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -5201,8 +8468,27 @@
       <c r="E11" s="2">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="4">
+        <v>180</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>58.833333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -5215,8 +8501,27 @@
       <c r="E12" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="4">
+        <v>210</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -5229,8 +8534,27 @@
       <c r="E13" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4">
+        <v>240</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -5243,8 +8567,27 @@
       <c r="E14" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4">
+        <v>270</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>83.5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -5257,8 +8600,27 @@
       <c r="E15" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>300</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>83.5</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>85.833333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -5282,14 +8644,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1.623</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2.8530000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>9.7810000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>8.8680000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="16">
+        <v>4</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9.16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/LaTeX/Experiment/Results/NonCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/NonCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2Molar" sheetId="1" r:id="rId1"/>
@@ -628,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100913152"/>
-        <c:axId val="100915072"/>
+        <c:axId val="96476160"/>
+        <c:axId val="96642560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100913152"/>
+        <c:axId val="96476160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100915072"/>
+        <c:crossAx val="96642560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100915072"/>
+        <c:axId val="96642560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100913152"/>
+        <c:crossAx val="96476160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -779,20 +779,6 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.2744409555833677E-2"/>
-                  <c:y val="-4.3857639246533159E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -889,11 +875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154224512"/>
-        <c:axId val="154230784"/>
+        <c:axId val="98756864"/>
+        <c:axId val="98759040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154224512"/>
+        <c:axId val="98756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154230784"/>
+        <c:crossAx val="98759040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -930,7 +916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154230784"/>
+        <c:axId val="98759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,9 +946,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154224512"/>
+        <c:crossAx val="98756864"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1315,11 +1301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153987328"/>
-        <c:axId val="154001792"/>
+        <c:axId val="100715136"/>
+        <c:axId val="100995840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153987328"/>
+        <c:axId val="100715136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154001792"/>
+        <c:crossAx val="100995840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,7 +1342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154001792"/>
+        <c:axId val="100995840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153987328"/>
+        <c:crossAx val="100715136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,21 +1460,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="-9"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3610285339307918E-2"/>
-                  <c:y val="-2.3898117702208146E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -1585,11 +1556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154093056"/>
-        <c:axId val="154094976"/>
+        <c:axId val="101016704"/>
+        <c:axId val="101018624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154093056"/>
+        <c:axId val="101016704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154094976"/>
+        <c:crossAx val="101018624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154094976"/>
+        <c:axId val="101018624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,9 +1627,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154093056"/>
+        <c:crossAx val="101016704"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1786,11 +1757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39523072"/>
-        <c:axId val="39524608"/>
+        <c:axId val="101142528"/>
+        <c:axId val="101144448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39523072"/>
+        <c:axId val="101142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39524608"/>
+        <c:crossAx val="101144448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1840,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39524608"/>
+        <c:axId val="101144448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,9 +1861,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39523072"/>
+        <c:crossAx val="101142528"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1965,41 +1936,9 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="-1.6"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.4240591045052261E-2"/>
-                  <c:y val="-3.6115926137768595E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>y = 1.6227x - 1.6
-R² = 0.9958</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>[1]Sheet1!$B$4:$B$14</c:f>
+              <c:f>'2Molar'!$B$5:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2093,16 +2032,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102329728"/>
-        <c:axId val="102331904"/>
+        <c:axId val="77863552"/>
+        <c:axId val="77865728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102329728"/>
+        <c:axId val="77863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2126,7 +2067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102331904"/>
+        <c:crossAx val="77865728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2134,9 +2075,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102331904"/>
+        <c:axId val="77865728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2164,9 +2107,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102329728"/>
+        <c:crossAx val="77863552"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2519,11 +2462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100659200"/>
-        <c:axId val="100661120"/>
+        <c:axId val="78261632"/>
+        <c:axId val="78267904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100659200"/>
+        <c:axId val="78261632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,7 +2495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100661120"/>
+        <c:crossAx val="78267904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2560,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100661120"/>
+        <c:axId val="78267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100659200"/>
+        <c:crossAx val="78261632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,21 +2613,6 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="-3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2127086599546342E-2"/>
-                  <c:y val="-7.1590425970770824E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -2781,11 +2709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100678656"/>
-        <c:axId val="100693120"/>
+        <c:axId val="78278016"/>
+        <c:axId val="78312960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100678656"/>
+        <c:axId val="78278016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,7 +2742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100693120"/>
+        <c:crossAx val="78312960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2822,9 +2750,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100693120"/>
+        <c:axId val="78312960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2852,9 +2781,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100678656"/>
+        <c:crossAx val="78278016"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3207,11 +3136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100750848"/>
-        <c:axId val="100752768"/>
+        <c:axId val="78391552"/>
+        <c:axId val="78401920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100750848"/>
+        <c:axId val="78391552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3240,7 +3169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100752768"/>
+        <c:crossAx val="78401920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3248,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100752768"/>
+        <c:axId val="78401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3278,7 +3207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100750848"/>
+        <c:crossAx val="78391552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3358,21 +3287,6 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="-5.5"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.0548942033504079E-2"/>
-                  <c:y val="-1.5583212837950707E-4"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -3469,11 +3383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100786944"/>
-        <c:axId val="100788864"/>
+        <c:axId val="78422784"/>
+        <c:axId val="78424704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100786944"/>
+        <c:axId val="78422784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +3416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100788864"/>
+        <c:crossAx val="78424704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3510,9 +3424,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100788864"/>
+        <c:axId val="78424704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3540,9 +3455,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100786944"/>
+        <c:crossAx val="78422784"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3895,11 +3810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142828288"/>
-        <c:axId val="142830208"/>
+        <c:axId val="96645888"/>
+        <c:axId val="96647808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142828288"/>
+        <c:axId val="96645888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142830208"/>
+        <c:crossAx val="96647808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3936,7 +3851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142830208"/>
+        <c:axId val="96647808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +3881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142828288"/>
+        <c:crossAx val="96645888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4046,22 +3961,6 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:intercept val="-9.6999999999999993"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.2333315236005908E-2"/>
-                  <c:y val="-5.5969547043096458E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -4158,11 +4057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148508672"/>
-        <c:axId val="148510592"/>
+        <c:axId val="96656384"/>
+        <c:axId val="97399936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148508672"/>
+        <c:axId val="96656384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148510592"/>
+        <c:crossAx val="97399936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4199,7 +4098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148510592"/>
+        <c:axId val="97399936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,9 +4128,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148508672"/>
+        <c:crossAx val="96656384"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4584,11 +4483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148564224"/>
-        <c:axId val="148566400"/>
+        <c:axId val="98712960"/>
+        <c:axId val="98723328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148564224"/>
+        <c:axId val="98712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,7 +4516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148566400"/>
+        <c:crossAx val="98723328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4625,7 +4524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148566400"/>
+        <c:axId val="98723328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,7 +4554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148564224"/>
+        <c:crossAx val="98712960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6041,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6420,7 +6319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -6856,8 +6755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="G3:L15"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7304,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H3:M15"/>
     </sheetView>
   </sheetViews>
@@ -7750,7 +7649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H15" sqref="H3:M15"/>
     </sheetView>
   </sheetViews>
@@ -8198,8 +8097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8646,8 +8545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LaTeX/Experiment/Results/NonCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/NonCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2Molar" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
   <si>
     <t>Time (s)</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Initial Rate of Reaction</t>
+  </si>
+  <si>
+    <t>Gradient</t>
   </si>
 </sst>
 </file>
@@ -628,11 +631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96476160"/>
-        <c:axId val="96642560"/>
+        <c:axId val="39829888"/>
+        <c:axId val="39831808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96476160"/>
+        <c:axId val="39829888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96642560"/>
+        <c:crossAx val="39831808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96642560"/>
+        <c:axId val="39831808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96476160"/>
+        <c:crossAx val="39829888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -764,7 +767,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -779,6 +781,19 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -875,16 +890,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98756864"/>
-        <c:axId val="98759040"/>
+        <c:axId val="58346112"/>
+        <c:axId val="58364672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98756864"/>
+        <c:axId val="58346112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -901,14 +918,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98759040"/>
+        <c:crossAx val="58364672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -916,9 +932,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98759040"/>
+        <c:axId val="58364672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -939,14 +956,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98756864"/>
+        <c:crossAx val="58346112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1006,7 +1022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1301,11 +1316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100715136"/>
-        <c:axId val="100995840"/>
+        <c:axId val="40598528"/>
+        <c:axId val="40699008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100715136"/>
+        <c:axId val="40598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,14 +1342,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100995840"/>
+        <c:crossAx val="40699008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1342,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100995840"/>
+        <c:axId val="40699008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,21 +1379,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100715136"/>
+        <c:crossAx val="40598528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1437,7 +1449,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1460,6 +1471,20 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="-9"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -1556,11 +1581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101016704"/>
-        <c:axId val="101018624"/>
+        <c:axId val="40724736"/>
+        <c:axId val="40731008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101016704"/>
+        <c:axId val="40724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,14 +1607,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101018624"/>
+        <c:crossAx val="40731008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1597,9 +1621,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101018624"/>
+        <c:axId val="40731008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1620,14 +1645,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101016704"/>
+        <c:crossAx val="40724736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1725,22 +1749,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.623</c:v>
+                  <c:v>5.5570000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8530000000000002</c:v>
+                  <c:v>9.6100000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>5.56</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7810000000000006</c:v>
+                  <c:v>0.44025700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8680000000000003</c:v>
+                  <c:v>0.29223300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>9.16</c:v>
+                  <c:v>0.30667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,11 +1781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101142528"/>
-        <c:axId val="101144448"/>
+        <c:axId val="58471552"/>
+        <c:axId val="58473472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101142528"/>
+        <c:axId val="58471552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101144448"/>
+        <c:crossAx val="58473472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101144448"/>
+        <c:axId val="58473472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101142528"/>
+        <c:crossAx val="58471552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1926,7 +1950,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5566217671191524E-2"/>
+          <c:y val="0.18095349754898005"/>
+          <c:w val="0.89930786408100183"/>
+          <c:h val="0.71133961876112817"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1936,6 +1970,19 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2Molar'!$B$5:$B$15</c:f>
@@ -1980,7 +2027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2Molar'!$G$5:$G$15</c:f>
+              <c:f>'2Molar'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2032,11 +2079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77863552"/>
-        <c:axId val="77865728"/>
+        <c:axId val="40337408"/>
+        <c:axId val="40339328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77863552"/>
+        <c:axId val="40337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77865728"/>
+        <c:crossAx val="40339328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2075,7 +2122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77865728"/>
+        <c:axId val="40339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2107,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77863552"/>
+        <c:crossAx val="40337408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2167,7 +2214,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2462,11 +2508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78261632"/>
-        <c:axId val="78267904"/>
+        <c:axId val="39584128"/>
+        <c:axId val="39586048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78261632"/>
+        <c:axId val="39584128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,14 +2534,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78267904"/>
+        <c:crossAx val="39586048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2503,7 +2548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78267904"/>
+        <c:axId val="39586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,21 +2571,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78261632"/>
+        <c:crossAx val="39584128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2598,7 +2641,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2613,6 +2655,19 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -2709,16 +2764,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78278016"/>
-        <c:axId val="78312960"/>
+        <c:axId val="39607680"/>
+        <c:axId val="39622144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78278016"/>
+        <c:axId val="39607680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2735,14 +2792,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78312960"/>
+        <c:crossAx val="39622144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2750,10 +2806,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78312960"/>
+        <c:axId val="39622144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2774,14 +2831,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78278016"/>
+        <c:crossAx val="39607680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2841,7 +2897,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3136,11 +3191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78391552"/>
-        <c:axId val="78401920"/>
+        <c:axId val="39675776"/>
+        <c:axId val="39690240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78391552"/>
+        <c:axId val="39675776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,14 +3217,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78401920"/>
+        <c:crossAx val="39690240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78401920"/>
+        <c:axId val="39690240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,21 +3254,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78391552"/>
+        <c:crossAx val="39675776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3272,7 +3324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3287,6 +3338,16 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -3383,16 +3444,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78422784"/>
-        <c:axId val="78424704"/>
+        <c:axId val="40764160"/>
+        <c:axId val="40766080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78422784"/>
+        <c:axId val="40764160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3409,14 +3472,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78424704"/>
+        <c:crossAx val="40766080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3424,10 +3486,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78424704"/>
+        <c:axId val="40766080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3448,14 +3511,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78422784"/>
+        <c:crossAx val="40764160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3515,7 +3577,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3810,11 +3871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96645888"/>
-        <c:axId val="96647808"/>
+        <c:axId val="40786944"/>
+        <c:axId val="40866944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96645888"/>
+        <c:axId val="40786944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,14 +3897,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96647808"/>
+        <c:crossAx val="40866944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3851,7 +3911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96647808"/>
+        <c:axId val="40866944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,21 +3934,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96645888"/>
+        <c:crossAx val="40786944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3946,7 +4004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3961,6 +4018,20 @@
           <c:tx>
             <c:v>Repeat 1</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'2.4Molar'!$B$5:$B$15</c:f>
@@ -4057,16 +4128,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96656384"/>
-        <c:axId val="97399936"/>
+        <c:axId val="58267904"/>
+        <c:axId val="58270080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96656384"/>
+        <c:axId val="58267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4083,14 +4156,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97399936"/>
+        <c:crossAx val="58270080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4098,9 +4170,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97399936"/>
+        <c:axId val="58270080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4121,14 +4194,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96656384"/>
+        <c:crossAx val="58267904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4188,7 +4260,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4483,11 +4554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98712960"/>
-        <c:axId val="98723328"/>
+        <c:axId val="58334208"/>
+        <c:axId val="58336384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98712960"/>
+        <c:axId val="58334208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,14 +4580,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98723328"/>
+        <c:crossAx val="58336384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4524,7 +4594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98723328"/>
+        <c:axId val="58336384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,21 +4617,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98712960"/>
+        <c:crossAx val="58334208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4688,16 +4756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6164</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>62754</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>55860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>137302</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>27016</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5149,6 +5217,51 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4991100" y="3933825"/>
+          <a:ext cx="5019675" cy="2914653"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5938,10 +6051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5952,8 +6065,8 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
@@ -5961,7 +6074,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -5974,11 +6087,11 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -5991,16 +6104,16 @@
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <f>D5-0.5</f>
         <v>0</v>
       </c>
-      <c r="G5">
-        <f>(C5+E5+F5)/3</f>
+      <c r="H5">
+        <f>(C5+E5+G5)/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -6013,16 +6126,16 @@
       <c r="E6" s="2">
         <v>1.5</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:F15" si="0">D6-0.5</f>
+      <c r="G6" s="7">
+        <f>D6-0.5</f>
         <v>1.5</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G15" si="1">(C6+E6+F6)/3</f>
+      <c r="H6">
+        <f>(C6+E6+G6)/3</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -6035,16 +6148,16 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
+      <c r="G7" s="7">
+        <f>D7-0.5</f>
         <v>3</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f>(C7+E7+G7)/3</f>
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -6057,16 +6170,16 @@
       <c r="E8" s="2">
         <v>4.5</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
+      <c r="G8" s="7">
+        <f>D8-0.5</f>
         <v>4.5</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f>(C8+E8+G8)/3</f>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -6079,16 +6192,16 @@
       <c r="E9" s="2">
         <v>6.5</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
+      <c r="G9" s="7">
+        <f>D9-0.5</f>
         <v>6</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f>(C9+E9+G9)/3</f>
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -6101,16 +6214,16 @@
       <c r="E10" s="2">
         <v>8</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
+      <c r="G10" s="7">
+        <f>D10-0.5</f>
         <v>7.5</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f>(C10+E10+G10)/3</f>
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -6123,16 +6236,16 @@
       <c r="E11" s="2">
         <v>9.5</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
+      <c r="G11" s="7">
+        <f>D11-0.5</f>
         <v>9.5</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f>(C11+E11+G11)/3</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -6145,16 +6258,16 @@
       <c r="E12" s="2">
         <v>11.5</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
+      <c r="G12" s="7">
+        <f>D12-0.5</f>
         <v>11.5</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f>(C12+E12+G12)/3</f>
         <v>11.5</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -6167,16 +6280,16 @@
       <c r="E13" s="2">
         <v>13.5</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
+      <c r="G13" s="7">
+        <f>D13-0.5</f>
         <v>13.5</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f>(C13+E13+G13)/3</f>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -6189,16 +6302,16 @@
       <c r="E14" s="2">
         <v>15</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
+      <c r="G14" s="7">
+        <f>D14-0.5</f>
         <v>15</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f>(C14+E14+G14)/3</f>
         <v>14.833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -6211,28 +6324,29 @@
       <c r="E15" s="2">
         <v>17</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
+      <c r="G15" s="7">
+        <f>D15-0.5</f>
         <v>17</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f>(C15+E15+G15)/3</f>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>16.7</v>
-      </c>
-    </row>
+    <row r="16" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6244,61 +6358,61 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E29" si="2">D6-0.5</f>
+        <f t="shared" ref="E20:E29" si="0">D6-0.5</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -6307,6 +6421,12 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>16.67/300</f>
+        <v>5.5566666666666674E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6317,10 +6437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6745,6 +6865,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>28.83/300</f>
+        <v>9.6099999999999991E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6753,10 +6879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7193,6 +7319,12 @@
         <v>11.5</v>
       </c>
     </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f>55.5/300</f>
+        <v>0.185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7201,10 +7333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H3:M15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7631,12 +7763,21 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f>100/227.14</f>
+        <v>0.44025711015232899</v>
       </c>
     </row>
   </sheetData>
@@ -7647,10 +7788,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H3:M15"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8087,6 +8228,12 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>87.67/300</f>
+        <v>0.29223333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8095,10 +8242,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8535,6 +8682,12 @@
         <v>5.5</v>
       </c>
     </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>92/300</f>
+        <v>0.30666666666666664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8546,7 +8699,7 @@
   <dimension ref="C2:D9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8569,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="20">
-        <v>1.623</v>
+        <v>5.5570000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -8577,7 +8730,7 @@
         <v>2.4</v>
       </c>
       <c r="D5" s="17">
-        <v>2.8530000000000002</v>
+        <v>9.6100000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -8585,7 +8738,7 @@
         <v>2.8</v>
       </c>
       <c r="D6" s="18">
-        <v>5.56</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
@@ -8593,7 +8746,7 @@
         <v>3.2</v>
       </c>
       <c r="D7" s="17">
-        <v>9.7810000000000006</v>
+        <v>0.44025700000000001</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -8601,7 +8754,7 @@
         <v>3.6</v>
       </c>
       <c r="D8" s="17">
-        <v>8.8680000000000003</v>
+        <v>0.29223300000000002</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -8609,7 +8762,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="18">
-        <v>9.16</v>
+        <v>0.30667</v>
       </c>
     </row>
   </sheetData>

--- a/LaTeX/Experiment/Results/NonCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/NonCatalyst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2Molar" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -280,13 +280,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,11 +630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39829888"/>
-        <c:axId val="39831808"/>
+        <c:axId val="110180992"/>
+        <c:axId val="110187264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39829888"/>
+        <c:axId val="110180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39831808"/>
+        <c:crossAx val="110187264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39831808"/>
+        <c:axId val="110187264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39829888"/>
+        <c:crossAx val="110180992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -767,6 +766,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -890,11 +890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58346112"/>
-        <c:axId val="58364672"/>
+        <c:axId val="110097536"/>
+        <c:axId val="110099456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58346112"/>
+        <c:axId val="110097536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,22 +909,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58364672"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110099456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58364672"/>
+        <c:axId val="110099456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -947,22 +958,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58346112"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110097536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,6 +1044,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1316,11 +1339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40598528"/>
-        <c:axId val="40699008"/>
+        <c:axId val="117712384"/>
+        <c:axId val="117714304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40598528"/>
+        <c:axId val="117712384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,13 +1365,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40699008"/>
+        <c:crossAx val="117714304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,7 +1380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40699008"/>
+        <c:axId val="117714304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,19 +1403,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40598528"/>
+        <c:crossAx val="117712384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1449,6 +1475,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1581,11 +1608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40724736"/>
-        <c:axId val="40731008"/>
+        <c:axId val="117990144"/>
+        <c:axId val="117992064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40724736"/>
+        <c:axId val="117990144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,22 +1625,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40731008"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117992064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1621,7 +1659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40731008"/>
+        <c:axId val="117992064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1636,22 +1674,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40724736"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117990144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1746,7 +1795,7 @@
             <c:numRef>
               <c:f>All!$D$4:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.5570000000000001E-2</c:v>
@@ -1754,7 +1803,7 @@
                 <c:pt idx="1">
                   <c:v>9.6100000000000005E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.000">
+                <c:pt idx="2">
                   <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1763,7 +1812,7 @@
                 <c:pt idx="4">
                   <c:v>0.29223300000000002</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.000">
+                <c:pt idx="5">
                   <c:v>0.30667</c:v>
                 </c:pt>
               </c:numCache>
@@ -1781,11 +1830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58471552"/>
-        <c:axId val="58473472"/>
+        <c:axId val="117804416"/>
+        <c:axId val="117806592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58471552"/>
+        <c:axId val="117804416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,25 +1847,25 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Concentration</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> of Sulfuric Acid (mol dm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t>)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1827,7 +1876,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58473472"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117806592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58473472"/>
+        <c:axId val="117806592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,30 +1908,30 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Initial</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> Rate of Reaction (mol dm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t> S</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="30000"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
                   <a:t>-1</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
                   <a:t>)</a:t>
                 </a:r>
               </a:p>
@@ -1885,7 +1944,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58471552"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117804416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2079,11 +2148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40337408"/>
-        <c:axId val="40339328"/>
+        <c:axId val="110221568"/>
+        <c:axId val="117047680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40337408"/>
+        <c:axId val="110221568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,10 +2167,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -2114,7 +2183,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40339328"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117047680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2122,7 +2201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40339328"/>
+        <c:axId val="117047680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2138,10 +2217,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
@@ -2154,7 +2233,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40337408"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110221568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2214,6 +2303,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2508,11 +2598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39584128"/>
-        <c:axId val="39586048"/>
+        <c:axId val="117136000"/>
+        <c:axId val="117158656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39584128"/>
+        <c:axId val="117136000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,13 +2624,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39586048"/>
+        <c:crossAx val="117158656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2548,7 +2639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39586048"/>
+        <c:axId val="117158656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,19 +2662,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39584128"/>
+        <c:crossAx val="117136000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2641,6 +2734,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2764,11 +2858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39607680"/>
-        <c:axId val="39622144"/>
+        <c:axId val="117176192"/>
+        <c:axId val="117248000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39607680"/>
+        <c:axId val="117176192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,22 +2877,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39622144"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117248000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2806,7 +2911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39622144"/>
+        <c:axId val="117248000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2822,22 +2927,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39607680"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117176192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2897,6 +3013,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3191,11 +3308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39675776"/>
-        <c:axId val="39690240"/>
+        <c:axId val="117299456"/>
+        <c:axId val="117576064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39675776"/>
+        <c:axId val="117299456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,13 +3334,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39690240"/>
+        <c:crossAx val="117576064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39690240"/>
+        <c:axId val="117576064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,19 +3372,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39675776"/>
+        <c:crossAx val="117299456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3324,6 +3444,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3444,11 +3565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40764160"/>
-        <c:axId val="40766080"/>
+        <c:axId val="117601792"/>
+        <c:axId val="117603712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40764160"/>
+        <c:axId val="117601792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,22 +3584,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40766080"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117603712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3486,7 +3618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40766080"/>
+        <c:axId val="117603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3502,22 +3634,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40764160"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117601792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3577,6 +3720,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3871,11 +4015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40786944"/>
-        <c:axId val="40866944"/>
+        <c:axId val="109880832"/>
+        <c:axId val="109882752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40786944"/>
+        <c:axId val="109880832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,13 +4041,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40866944"/>
+        <c:crossAx val="109882752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3911,7 +4056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40866944"/>
+        <c:axId val="109882752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,19 +4079,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40786944"/>
+        <c:crossAx val="109880832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4004,6 +4151,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4128,11 +4276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58267904"/>
-        <c:axId val="58270080"/>
+        <c:axId val="109941504"/>
+        <c:axId val="109943424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58267904"/>
+        <c:axId val="109941504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,22 +4295,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58270080"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109943424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4170,7 +4329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58270080"/>
+        <c:axId val="109943424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4185,22 +4344,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1400"/>
                   <a:t>Volume of Hydrogen Produced (ml)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58267904"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109941504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4260,6 +4430,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4554,11 +4725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58334208"/>
-        <c:axId val="58336384"/>
+        <c:axId val="110040576"/>
+        <c:axId val="110042496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58334208"/>
+        <c:axId val="110040576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,13 +4751,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58336384"/>
+        <c:crossAx val="110042496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4594,7 +4766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58336384"/>
+        <c:axId val="110042496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,19 +4789,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58334208"/>
+        <c:crossAx val="110040576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4756,16 +4930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>55860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43822</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>27016</xdr:rowOff>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5222,15 +5396,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123828</xdr:rowOff>
+      <xdr:rowOff>4</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5239,8 +5413,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4991100" y="3933825"/>
-          <a:ext cx="5019675" cy="2914653"/>
+          <a:off x="5153025" y="3952875"/>
+          <a:ext cx="4829175" cy="2771779"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5379,16 +5553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>430215</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90489</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>258765</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5567,10 +5741,10 @@
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>360365</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6053,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C18"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6105,11 +6279,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f>D5-0.5</f>
+        <f t="shared" ref="G5:G15" si="0">D5-0.5</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>(C5+E5+G5)/3</f>
+        <f t="shared" ref="H5:H15" si="1">(C5+E5+G5)/3</f>
         <v>0</v>
       </c>
     </row>
@@ -6127,11 +6301,11 @@
         <v>1.5</v>
       </c>
       <c r="G6" s="7">
-        <f>D6-0.5</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="H6">
-        <f>(C6+E6+G6)/3</f>
+        <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -6149,11 +6323,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="7">
-        <f>D7-0.5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H7">
-        <f>(C7+E7+G7)/3</f>
+        <f t="shared" si="1"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
@@ -6171,11 +6345,11 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7">
-        <f>D8-0.5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="H8">
-        <f>(C8+E8+G8)/3</f>
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -6193,11 +6367,11 @@
         <v>6.5</v>
       </c>
       <c r="G9" s="7">
-        <f>D9-0.5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H9">
-        <f>(C9+E9+G9)/3</f>
+        <f t="shared" si="1"/>
         <v>6.166666666666667</v>
       </c>
     </row>
@@ -6215,11 +6389,11 @@
         <v>8</v>
       </c>
       <c r="G10" s="7">
-        <f>D10-0.5</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="H10">
-        <f>(C10+E10+G10)/3</f>
+        <f t="shared" si="1"/>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -6237,11 +6411,11 @@
         <v>9.5</v>
       </c>
       <c r="G11" s="7">
-        <f>D11-0.5</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="H11">
-        <f>(C11+E11+G11)/3</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -6259,11 +6433,11 @@
         <v>11.5</v>
       </c>
       <c r="G12" s="7">
-        <f>D12-0.5</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="H12">
-        <f>(C12+E12+G12)/3</f>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
     </row>
@@ -6281,11 +6455,11 @@
         <v>13.5</v>
       </c>
       <c r="G13" s="7">
-        <f>D13-0.5</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="H13">
-        <f>(C13+E13+G13)/3</f>
+        <f t="shared" si="1"/>
         <v>13.333333333333334</v>
       </c>
     </row>
@@ -6303,11 +6477,11 @@
         <v>15</v>
       </c>
       <c r="G14" s="7">
-        <f>D14-0.5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H14">
-        <f>(C14+E14+G14)/3</f>
+        <f t="shared" si="1"/>
         <v>14.833333333333334</v>
       </c>
     </row>
@@ -6325,11 +6499,11 @@
         <v>17</v>
       </c>
       <c r="G15" s="7">
-        <f>D15-0.5</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H15">
-        <f>(C15+E15+G15)/3</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
     </row>
@@ -6358,61 +6532,61 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E29" si="0">D6-0.5</f>
+        <f t="shared" ref="E20:E29" si="2">D6-0.5</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -6439,8 +6613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6849,19 +7023,20 @@
         <v>28.833333333333332</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>28.8</v>
-      </c>
-    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
     </row>
@@ -6881,8 +7056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7303,19 +7478,20 @@
         <v>54.333333333333336</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>54.3</v>
-      </c>
-    </row>
+    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>11.5</v>
       </c>
     </row>
@@ -7335,7 +7511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -7755,19 +7931,20 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>89.5</v>
-      </c>
-    </row>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>1</v>
       </c>
     </row>
@@ -7790,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8212,19 +8389,20 @@
         <v>87.666666666666671</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>87.7</v>
-      </c>
-    </row>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>2.5</v>
       </c>
     </row>
@@ -8244,8 +8422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,19 +8844,20 @@
         <v>85.833333333333329</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>85.8</v>
-      </c>
-    </row>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>5.5</v>
       </c>
     </row>
@@ -8698,27 +8877,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="20">
@@ -8737,7 +8916,7 @@
       <c r="C6" s="16">
         <v>2.8</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>0.185</v>
       </c>
     </row>
@@ -8761,7 +8940,7 @@
       <c r="C9" s="16">
         <v>4</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>0.30667</v>
       </c>
     </row>

--- a/LaTeX/Experiment/Results/NonCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/NonCatalyst.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="11">
   <si>
     <t>Time (s)</t>
   </si>
@@ -52,10 +52,33 @@
     <t>Sulfuric Acid Concentration (Molar)</t>
   </si>
   <si>
-    <t>Initial Rate of Reaction</t>
+    <t>Gradient</t>
   </si>
   <si>
-    <t>Gradient</t>
+    <r>
+      <t>Initial Rate of Reaction (ml s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -66,8 +89,16 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -252,11 +283,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -286,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,7 +393,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -630,11 +687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110180992"/>
-        <c:axId val="110187264"/>
+        <c:axId val="100481664"/>
+        <c:axId val="100487936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110180992"/>
+        <c:axId val="100481664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,14 +713,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110187264"/>
+        <c:crossAx val="100487936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110187264"/>
+        <c:axId val="100487936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,21 +750,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110180992"/>
+        <c:crossAx val="100481664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -766,7 +820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -890,11 +943,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110097536"/>
-        <c:axId val="110099456"/>
+        <c:axId val="98825344"/>
+        <c:axId val="98827264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110097536"/>
+        <c:axId val="98825344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +971,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -935,7 +987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110099456"/>
+        <c:crossAx val="98827264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110099456"/>
+        <c:axId val="98827264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -967,7 +1019,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -984,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110097536"/>
+        <c:crossAx val="98825344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1044,7 +1095,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1339,11 +1389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117712384"/>
-        <c:axId val="117714304"/>
+        <c:axId val="105522688"/>
+        <c:axId val="105524608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117712384"/>
+        <c:axId val="105522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,14 +1415,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117714304"/>
+        <c:crossAx val="105524608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117714304"/>
+        <c:axId val="105524608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,21 +1452,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117712384"/>
+        <c:crossAx val="105522688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1608,11 +1655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117990144"/>
-        <c:axId val="117992064"/>
+        <c:axId val="106791680"/>
+        <c:axId val="106793600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117990144"/>
+        <c:axId val="106791680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117992064"/>
+        <c:crossAx val="106793600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117992064"/>
+        <c:axId val="106793600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1700,7 +1747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117990144"/>
+        <c:crossAx val="106791680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1830,11 +1877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117804416"/>
-        <c:axId val="117806592"/>
+        <c:axId val="105622912"/>
+        <c:axId val="105625088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117804416"/>
+        <c:axId val="105622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117806592"/>
+        <c:crossAx val="105625088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117806592"/>
+        <c:axId val="105625088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,23 +1963,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-                  <a:t> Rate of Reaction (mol dm</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
-                  <a:t>-3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-                  <a:t> S</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
-                  <a:t>-1</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-                  <a:t>)</a:t>
+                  <a:t> Rate of Reaction (ml)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1954,7 +1985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117804416"/>
+        <c:crossAx val="105622912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2014,7 +2045,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2096,42 +2126,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2Molar'!$H$5:$H$15</c:f>
+              <c:f>'2Molar'!$F$5:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8333333333333335</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.166666666666667</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>7.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5</c:v>
+                  <c:v>9.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.5</c:v>
+                  <c:v>11.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.333333333333334</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.833333333333334</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>16.833333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,11 +2178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110221568"/>
-        <c:axId val="117047680"/>
+        <c:axId val="100522240"/>
+        <c:axId val="100528512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110221568"/>
+        <c:axId val="100522240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2206,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2193,7 +2222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117047680"/>
+        <c:crossAx val="100528512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2201,7 +2230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117047680"/>
+        <c:axId val="100528512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2226,10 +2255,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2243,7 +2271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110221568"/>
+        <c:crossAx val="100522240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2303,7 +2331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2598,11 +2625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117136000"/>
-        <c:axId val="117158656"/>
+        <c:axId val="100952704"/>
+        <c:axId val="100971264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117136000"/>
+        <c:axId val="100952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,14 +2651,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117158656"/>
+        <c:crossAx val="100971264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2639,7 +2665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117158656"/>
+        <c:axId val="100971264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,21 +2688,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117136000"/>
+        <c:crossAx val="100952704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2734,7 +2758,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2808,7 +2831,7 @@
             <c:numRef>
               <c:f>'2.4Molar'!$L$5:$L$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2858,11 +2881,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117176192"/>
-        <c:axId val="117248000"/>
+        <c:axId val="100992896"/>
+        <c:axId val="100999168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117176192"/>
+        <c:axId val="100992896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +2909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2903,7 +2925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117248000"/>
+        <c:crossAx val="100999168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2911,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117248000"/>
+        <c:axId val="100999168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2936,10 +2958,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2953,7 +2974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117176192"/>
+        <c:crossAx val="100992896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3013,7 +3034,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3308,11 +3328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117299456"/>
-        <c:axId val="117576064"/>
+        <c:axId val="101046912"/>
+        <c:axId val="105382656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117299456"/>
+        <c:axId val="101046912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,14 +3354,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117576064"/>
+        <c:crossAx val="105382656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3349,7 +3368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117576064"/>
+        <c:axId val="105382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,21 +3391,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117299456"/>
+        <c:crossAx val="101046912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3444,7 +3461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3513,7 +3529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.8Molar'!$L$5:$L$15</c:f>
+              <c:f>'2.8Molar'!$M$5:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3565,11 +3581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117601792"/>
-        <c:axId val="117603712"/>
+        <c:axId val="105416192"/>
+        <c:axId val="105418112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117601792"/>
+        <c:axId val="105416192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3609,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3610,7 +3625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117603712"/>
+        <c:crossAx val="105418112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3618,7 +3633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117603712"/>
+        <c:axId val="105418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3643,7 +3658,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3660,7 +3674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117601792"/>
+        <c:crossAx val="105416192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3720,7 +3734,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4015,11 +4028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109880832"/>
-        <c:axId val="109882752"/>
+        <c:axId val="98616832"/>
+        <c:axId val="98618752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109880832"/>
+        <c:axId val="98616832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4041,14 +4054,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109882752"/>
+        <c:crossAx val="98618752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4056,7 +4068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109882752"/>
+        <c:axId val="98618752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,21 +4091,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109880832"/>
+        <c:crossAx val="98616832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4151,7 +4161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4276,11 +4285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109941504"/>
-        <c:axId val="109943424"/>
+        <c:axId val="98677504"/>
+        <c:axId val="98679424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109941504"/>
+        <c:axId val="98677504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,7 +4313,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4321,7 +4329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109943424"/>
+        <c:crossAx val="98679424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4329,7 +4337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109943424"/>
+        <c:axId val="98679424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4353,7 +4361,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4370,7 +4377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109941504"/>
+        <c:crossAx val="98677504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4430,7 +4437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4725,11 +4731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110040576"/>
-        <c:axId val="110042496"/>
+        <c:axId val="98772480"/>
+        <c:axId val="98774400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110040576"/>
+        <c:axId val="98772480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,14 +4757,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110042496"/>
+        <c:crossAx val="98774400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4766,7 +4771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110042496"/>
+        <c:axId val="98774400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,21 +4794,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110040576"/>
+        <c:crossAx val="98772480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6227,8 +6230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6249,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -6261,7 +6265,7 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6275,15 +6279,15 @@
       <c r="D5" s="7">
         <v>0.5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="21">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G15" si="0">D5-0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H15" si="1">(C5+E5+G5)/3</f>
+      <c r="F5" s="23">
+        <f>(C5+D5+E5)/3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H15" si="0">D5-0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -6297,16 +6301,16 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="22">
         <v>1.5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F15" si="1">(C6+D6+E6)/3</f>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6319,16 +6323,16 @@
       <c r="D7" s="2">
         <v>3.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="22">
         <v>3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6341,16 +6345,16 @@
       <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="22">
         <v>4.5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="F8" s="23">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>4.5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6363,16 +6367,16 @@
       <c r="D9" s="2">
         <v>6.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="22">
         <v>6.5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="23">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6385,16 +6389,16 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="22">
         <v>8</v>
       </c>
-      <c r="G10" s="7">
+      <c r="F10" s="23">
+        <f t="shared" si="1"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>7.5</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6407,15 +6411,15 @@
       <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="22">
         <v>9.5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="23">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -6429,15 +6433,15 @@
       <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="22">
         <v>11.5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="F12" s="23">
+        <f t="shared" si="1"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
     </row>
@@ -6451,16 +6455,16 @@
       <c r="D13" s="2">
         <v>14</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="22">
         <v>13.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="F13" s="23">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>13.5</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6473,16 +6477,16 @@
       <c r="D14" s="2">
         <v>15.5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="22">
         <v>15</v>
       </c>
-      <c r="G14" s="7">
+      <c r="F14" s="23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>14.833333333333334</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6495,16 +6499,16 @@
       <c r="D15" s="2">
         <v>17.5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="22">
         <v>17</v>
       </c>
-      <c r="G15" s="7">
+      <c r="F15" s="23">
+        <f t="shared" si="1"/>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -6611,10 +6615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6634,13 +6638,15 @@
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -6655,19 +6661,22 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6684,22 +6693,26 @@
       <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="F5" s="23">
+        <f>SUM(C5:E5)/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
-        <f>C5-0.5</f>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I15" si="0">C5-0.5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <f>D5-0.5</f>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J15" si="1">D5-0.5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5">
-        <f>(H5+I5+J5)/3</f>
+      <c r="L5" s="23">
+        <f t="shared" ref="L5:L15" si="2">(I5+J5+K5)/3</f>
         <v>0</v>
       </c>
     </row>
@@ -6716,22 +6729,26 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F15" si="3">SUM(C6:E6)/3</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="H6" s="4">
         <v>30</v>
       </c>
-      <c r="H6" s="6">
-        <f t="shared" ref="H6:H15" si="0">C6-0.5</f>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" ref="I6:I15" si="1">D6-0.5</f>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L15" si="2">(H6+I6+J6)/3</f>
+      <c r="L6" s="23">
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
@@ -6748,21 +6765,25 @@
       <c r="E7" s="2">
         <v>5.5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="23">
+        <f t="shared" si="3"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="H7" s="4">
         <v>60</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>5.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="23">
         <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
@@ -6780,21 +6801,25 @@
       <c r="E8" s="2">
         <v>8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="F8" s="23">
+        <f t="shared" si="3"/>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="H8" s="4">
         <v>90</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="23">
         <f t="shared" si="2"/>
         <v>7.833333333333333</v>
       </c>
@@ -6812,21 +6837,25 @@
       <c r="E9" s="2">
         <v>10.5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F9" s="23">
+        <f t="shared" si="3"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="H9" s="4">
         <v>120</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>10.5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="23">
         <f t="shared" si="2"/>
         <v>10.333333333333334</v>
       </c>
@@ -6844,21 +6873,25 @@
       <c r="E10" s="2">
         <v>13.5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="F10" s="23">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
         <v>150</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>13.5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="23">
         <f t="shared" si="2"/>
         <v>13.666666666666666</v>
       </c>
@@ -6876,21 +6909,25 @@
       <c r="E11" s="2">
         <v>16.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="F11" s="23">
+        <f t="shared" si="3"/>
+        <v>17.166666666666668</v>
+      </c>
+      <c r="H11" s="4">
         <v>180</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>16.5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="23">
         <f t="shared" si="2"/>
         <v>16.833333333333332</v>
       </c>
@@ -6908,21 +6945,25 @@
       <c r="E12" s="2">
         <v>19.5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="F12" s="23">
+        <f t="shared" si="3"/>
+        <v>20.166666666666668</v>
+      </c>
+      <c r="H12" s="4">
         <v>210</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>19.5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="23">
         <f t="shared" si="2"/>
         <v>19.833333333333332</v>
       </c>
@@ -6940,21 +6981,25 @@
       <c r="E13" s="2">
         <v>22.5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="F13" s="23">
+        <f t="shared" si="3"/>
+        <v>23.166666666666668</v>
+      </c>
+      <c r="H13" s="4">
         <v>240</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>22.5</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="23">
         <f t="shared" si="2"/>
         <v>22.833333333333332</v>
       </c>
@@ -6972,21 +7017,25 @@
       <c r="E14" s="2">
         <v>25.5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="F14" s="23">
+        <f t="shared" si="3"/>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="H14" s="4">
         <v>270</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>25.5</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="23">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7004,21 +7053,25 @@
       <c r="E15" s="2">
         <v>28.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="F15" s="23">
+        <f t="shared" si="3"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="H15" s="4">
         <v>300</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>28.5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="23">
         <f t="shared" si="2"/>
         <v>28.833333333333332</v>
       </c>
@@ -7038,12 +7091,6 @@
       </c>
       <c r="C18" s="15">
         <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>28.83/300</f>
-        <v>9.6099999999999991E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7054,10 +7101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7071,22 +7118,23 @@
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -7099,23 +7147,26 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -7128,27 +7179,31 @@
       <c r="E5" s="7">
         <v>0.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="F5" s="23">
+        <f>SUM(C5:E5)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
-        <f>C5-1</f>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I15" si="0">C5-1</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <f>D5-0.5</f>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J15" si="1">D5-0.5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <f>E5-0.5</f>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K15" si="2">E5-0.5</f>
         <v>0</v>
       </c>
-      <c r="L5">
-        <f>(H5+I5+J5)/3</f>
+      <c r="M5">
+        <f>(I5+J5+K5)/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>30</v>
       </c>
@@ -7161,27 +7216,31 @@
       <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F15" si="3">SUM(C6:E6)/3</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
         <v>30</v>
       </c>
-      <c r="H6" s="6">
-        <f t="shared" ref="H6:H15" si="0">C6-1</f>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" ref="I6:I15" si="1">D6-0.5</f>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" ref="J6:J15" si="2">E6-0.5</f>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L15" si="3">(H6+I6+J6)/3</f>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="4">(I6+J6+K6)/3</f>
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>60</v>
       </c>
@@ -7194,27 +7253,31 @@
       <c r="E7" s="2">
         <v>13.5</v>
       </c>
-      <c r="G7" s="4">
+      <c r="F7" s="23">
+        <f t="shared" si="3"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="H7" s="4">
         <v>60</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
+      <c r="M7">
+        <f t="shared" si="4"/>
         <v>9.1666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>90</v>
       </c>
@@ -7227,27 +7290,31 @@
       <c r="E8" s="2">
         <v>24.5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="F8" s="23">
+        <f t="shared" si="3"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="H8" s="4">
         <v>90</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
+      <c r="M8">
+        <f t="shared" si="4"/>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>120</v>
       </c>
@@ -7260,27 +7327,31 @@
       <c r="E9" s="2">
         <v>31</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F9" s="23">
+        <f t="shared" si="3"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="H9" s="4">
         <v>120</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
+      <c r="M9">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>150</v>
       </c>
@@ -7293,27 +7364,31 @@
       <c r="E10" s="2">
         <v>37</v>
       </c>
-      <c r="G10" s="4">
+      <c r="F10" s="23">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="H10" s="4">
         <v>150</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
+      <c r="M10">
+        <f t="shared" si="4"/>
         <v>27.833333333333332</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>180</v>
       </c>
@@ -7326,27 +7401,31 @@
       <c r="E11" s="2">
         <v>43</v>
       </c>
-      <c r="G11" s="4">
+      <c r="F11" s="23">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H11" s="4">
         <v>180</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
+      <c r="M11">
+        <f t="shared" si="4"/>
         <v>34.333333333333336</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>210</v>
       </c>
@@ -7359,27 +7438,31 @@
       <c r="E12" s="2">
         <v>48</v>
       </c>
-      <c r="G12" s="4">
+      <c r="F12" s="23">
+        <f t="shared" si="3"/>
+        <v>40.833333333333336</v>
+      </c>
+      <c r="H12" s="4">
         <v>210</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <f t="shared" si="2"/>
         <v>47.5</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
+      <c r="M12">
+        <f t="shared" si="4"/>
         <v>40.166666666666664</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>240</v>
       </c>
@@ -7392,27 +7475,31 @@
       <c r="E13" s="2">
         <v>52</v>
       </c>
-      <c r="G13" s="4">
+      <c r="F13" s="23">
+        <f t="shared" si="3"/>
+        <v>46.166666666666664</v>
+      </c>
+      <c r="H13" s="4">
         <v>240</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <f t="shared" si="2"/>
         <v>51.5</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
+      <c r="M13">
+        <f t="shared" si="4"/>
         <v>45.5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>270</v>
       </c>
@@ -7425,27 +7512,31 @@
       <c r="E14" s="2">
         <v>56</v>
       </c>
-      <c r="G14" s="4">
+      <c r="F14" s="23">
+        <f t="shared" si="3"/>
+        <v>50.833333333333336</v>
+      </c>
+      <c r="H14" s="4">
         <v>270</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="J14" s="7">
+      <c r="K14" s="7">
         <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
+      <c r="M14">
+        <f t="shared" si="4"/>
         <v>50.166666666666664</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>300</v>
       </c>
@@ -7458,27 +7549,31 @@
       <c r="E15" s="2">
         <v>59.5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="F15" s="23">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="H15" s="4">
         <v>300</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K15" s="7">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
+      <c r="M15">
+        <f t="shared" si="4"/>
         <v>54.333333333333336</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
@@ -7511,8 +7606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7531,7 +7626,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="8" t="s">
         <v>6</v>
@@ -7552,6 +7648,9 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
@@ -7581,6 +7680,10 @@
       <c r="E5" s="7">
         <v>1.5</v>
       </c>
+      <c r="F5" s="23">
+        <f>SUM(C5:E5)/3</f>
+        <v>1.3333333333333333</v>
+      </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
@@ -7614,23 +7717,27 @@
       <c r="E6" s="2">
         <v>12</v>
       </c>
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>12</v>
+      </c>
       <c r="H6" s="4">
         <v>30</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ref="I6:I15" si="0">C6-1.5</f>
+        <f t="shared" ref="I6:I15" si="1">C6-1.5</f>
         <v>8.5</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" ref="J6:J15" si="1">D6-1</f>
+        <f t="shared" ref="J6:J15" si="2">D6-1</f>
         <v>13</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:K15" si="2">E6-1.5</f>
+        <f t="shared" ref="K6:K15" si="3">E6-1.5</f>
         <v>10.5</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="4">(I6+J6+K6)/3</f>
         <v>10.666666666666666</v>
       </c>
     </row>
@@ -7647,23 +7754,27 @@
       <c r="E7" s="2">
         <v>26</v>
       </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="H7" s="4">
         <v>60</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.666666666666668</v>
       </c>
     </row>
@@ -7680,23 +7791,27 @@
       <c r="E8" s="2">
         <v>38.5</v>
       </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
       <c r="H8" s="4">
         <v>90</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.166666666666664</v>
       </c>
     </row>
@@ -7713,23 +7828,27 @@
       <c r="E9" s="2">
         <v>48.5</v>
       </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
       <c r="H9" s="4">
         <v>120</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.5</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.166666666666664</v>
       </c>
     </row>
@@ -7746,23 +7865,27 @@
       <c r="E10" s="2">
         <v>56.5</v>
       </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>55.833333333333336</v>
+      </c>
       <c r="H10" s="4">
         <v>150</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
     </row>
@@ -7779,23 +7902,27 @@
       <c r="E11" s="2">
         <v>64</v>
       </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>63.833333333333336</v>
+      </c>
       <c r="H11" s="4">
         <v>180</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="K11" s="7">
+      <c r="J11" s="6">
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
+      <c r="K11" s="7">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
     </row>
@@ -7812,23 +7939,27 @@
       <c r="E12" s="2">
         <v>71</v>
       </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
       <c r="H12" s="4">
         <v>210</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
       <c r="K12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69.5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.166666666666671</v>
       </c>
     </row>
@@ -7845,23 +7976,27 @@
       <c r="E13" s="2">
         <v>79.5</v>
       </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>79.333333333333329</v>
+      </c>
       <c r="H13" s="4">
         <v>240</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
@@ -7878,23 +8013,27 @@
       <c r="E14" s="2">
         <v>84.5</v>
       </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>84.333333333333329</v>
+      </c>
       <c r="H14" s="4">
         <v>270</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="K14" s="7">
+      <c r="J14" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
+      <c r="K14" s="7">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
@@ -7911,23 +8050,27 @@
       <c r="E15" s="2">
         <v>91</v>
       </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>90.833333333333329</v>
+      </c>
       <c r="H15" s="4">
         <v>300</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89.5</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
     </row>
@@ -7950,7 +8093,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <f>100/227.14</f>
@@ -7967,8 +8110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7989,7 +8132,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="8" t="s">
         <v>6</v>
@@ -8010,6 +8154,9 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
@@ -8039,6 +8186,10 @@
       <c r="E5" s="7">
         <v>0.5</v>
       </c>
+      <c r="F5" s="23">
+        <f>SUM(C5:E5)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
@@ -8072,23 +8223,27 @@
       <c r="E6" s="2">
         <v>9</v>
       </c>
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>7.833333333333333</v>
+      </c>
       <c r="H6" s="4">
         <v>30</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ref="I6:I15" si="0">C6-1</f>
+        <f t="shared" ref="I6:I15" si="1">C6-1</f>
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" ref="J6:J15" si="1">D6-1</f>
+        <f t="shared" ref="J6:J15" si="2">D6-1</f>
         <v>7.5</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" ref="K6:K15" si="2">E6-0.5</f>
+        <f t="shared" ref="K6:K15" si="3">E6-0.5</f>
         <v>8.5</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="3">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="4">(I6+J6+K6)/3</f>
         <v>7</v>
       </c>
     </row>
@@ -8105,23 +8260,27 @@
       <c r="E7" s="2">
         <v>17.5</v>
       </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>16.833333333333332</v>
+      </c>
       <c r="H7" s="4">
         <v>60</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="K7" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -8138,23 +8297,27 @@
       <c r="E8" s="2">
         <v>29.5</v>
       </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
       <c r="H8" s="4">
         <v>90</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
     </row>
@@ -8171,23 +8334,27 @@
       <c r="E9" s="2">
         <v>38.5</v>
       </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="H9" s="4">
         <v>120</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.166666666666664</v>
       </c>
     </row>
@@ -8204,23 +8371,27 @@
       <c r="E10" s="2">
         <v>47</v>
       </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>45.166666666666664</v>
+      </c>
       <c r="H10" s="4">
         <v>150</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.333333333333336</v>
       </c>
     </row>
@@ -8237,23 +8408,27 @@
       <c r="E11" s="2">
         <v>56</v>
       </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
       <c r="H11" s="4">
         <v>180</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.666666666666664</v>
       </c>
     </row>
@@ -8270,23 +8445,27 @@
       <c r="E12" s="2">
         <v>63.5</v>
       </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>62.333333333333336</v>
+      </c>
       <c r="H12" s="4">
         <v>210</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="K12" s="7">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
+      <c r="K12" s="7">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
     </row>
@@ -8303,23 +8482,27 @@
       <c r="E13" s="2">
         <v>73.5</v>
       </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>71.5</v>
+      </c>
       <c r="H13" s="4">
         <v>240</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.5</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.666666666666671</v>
       </c>
     </row>
@@ -8336,23 +8519,27 @@
       <c r="E14" s="2">
         <v>81.5</v>
       </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="H14" s="4">
         <v>270</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.166666666666671</v>
       </c>
     </row>
@@ -8369,23 +8556,27 @@
       <c r="E15" s="2">
         <v>89</v>
       </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
       <c r="H15" s="4">
         <v>300</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="1"/>
-        <v>88.5</v>
-      </c>
-      <c r="K15" s="7">
         <f t="shared" si="2"/>
         <v>88.5</v>
       </c>
+      <c r="K15" s="7">
+        <f t="shared" si="3"/>
+        <v>88.5</v>
+      </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87.666666666666671</v>
       </c>
     </row>
@@ -8422,8 +8613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8444,7 +8635,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="8" t="s">
         <v>6</v>
@@ -8465,6 +8657,9 @@
       <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
@@ -8494,6 +8689,10 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
+      <c r="F5" s="23">
+        <f>SUM(C5:E5)/3</f>
+        <v>1</v>
+      </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
@@ -8527,23 +8726,27 @@
       <c r="E6" s="2">
         <v>10.5</v>
       </c>
+      <c r="F6" s="23">
+        <f t="shared" ref="F6:F15" si="0">SUM(C6:E6)/3</f>
+        <v>9.6666666666666661</v>
+      </c>
       <c r="H6" s="4">
         <v>30</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ref="I6:K15" si="0">C6-1</f>
+        <f t="shared" ref="I6:K15" si="1">C6-1</f>
         <v>11</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="1">(I6+J6+K6)/3</f>
+        <f t="shared" ref="M6:M15" si="2">(I6+J6+K6)/3</f>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -8560,23 +8763,27 @@
       <c r="E7" s="2">
         <v>22</v>
       </c>
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>21.333333333333332</v>
+      </c>
       <c r="H7" s="4">
         <v>60</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.333333333333332</v>
       </c>
     </row>
@@ -8593,23 +8800,27 @@
       <c r="E8" s="2">
         <v>31.5</v>
       </c>
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="H8" s="4">
         <v>90</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -8626,23 +8837,27 @@
       <c r="E9" s="2">
         <v>42</v>
       </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="H9" s="4">
         <v>120</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
@@ -8659,23 +8874,27 @@
       <c r="E10" s="2">
         <v>52</v>
       </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>50.833333333333336</v>
+      </c>
       <c r="H10" s="4">
         <v>150</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.833333333333336</v>
       </c>
     </row>
@@ -8692,23 +8911,27 @@
       <c r="E11" s="2">
         <v>59.5</v>
       </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>59.833333333333336</v>
+      </c>
       <c r="H11" s="4">
         <v>180</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.5</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.833333333333336</v>
       </c>
     </row>
@@ -8725,23 +8948,27 @@
       <c r="E12" s="2">
         <v>68.5</v>
       </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
       <c r="H12" s="4">
         <v>210</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.5</v>
       </c>
     </row>
@@ -8758,23 +8985,27 @@
       <c r="E13" s="2">
         <v>79</v>
       </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>75.5</v>
+      </c>
       <c r="H13" s="4">
         <v>240</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.5</v>
       </c>
     </row>
@@ -8791,23 +9022,27 @@
       <c r="E14" s="2">
         <v>84.5</v>
       </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="H14" s="4">
         <v>270</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
     </row>
@@ -8824,23 +9059,27 @@
       <c r="E15" s="2">
         <v>90</v>
       </c>
+      <c r="F15" s="23">
+        <f t="shared" si="0"/>
+        <v>86.833333333333329</v>
+      </c>
       <c r="H15" s="4">
         <v>300</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.833333333333329</v>
       </c>
     </row>
@@ -8877,23 +9116,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/LaTeX/Experiment/Results/NonCatalyst.xlsx
+++ b/LaTeX/Experiment/Results/NonCatalyst.xlsx
@@ -687,11 +687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100481664"/>
-        <c:axId val="100487936"/>
+        <c:axId val="100196352"/>
+        <c:axId val="100198272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100481664"/>
+        <c:axId val="100196352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100487936"/>
+        <c:crossAx val="100198272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -727,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100487936"/>
+        <c:axId val="100198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100481664"/>
+        <c:crossAx val="100196352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,6 +820,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -943,11 +944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98825344"/>
-        <c:axId val="98827264"/>
+        <c:axId val="149580032"/>
+        <c:axId val="149586304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98825344"/>
+        <c:axId val="149580032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,6 +972,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -987,7 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98827264"/>
+        <c:crossAx val="149586304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -995,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98827264"/>
+        <c:axId val="149586304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1019,6 +1021,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1035,7 +1038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98825344"/>
+        <c:crossAx val="149580032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1389,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105522688"/>
-        <c:axId val="105524608"/>
+        <c:axId val="163502720"/>
+        <c:axId val="164631296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105522688"/>
+        <c:axId val="163502720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105524608"/>
+        <c:crossAx val="164631296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1429,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105524608"/>
+        <c:axId val="164631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +1461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105522688"/>
+        <c:crossAx val="163502720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,7 +1525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1655,11 +1657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106791680"/>
-        <c:axId val="106793600"/>
+        <c:axId val="164652928"/>
+        <c:axId val="164659200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106791680"/>
+        <c:axId val="164652928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1683,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1698,7 +1699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106793600"/>
+        <c:crossAx val="164659200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106793600"/>
+        <c:axId val="164659200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1730,7 +1731,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1747,7 +1747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106791680"/>
+        <c:crossAx val="164652928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1789,7 +1789,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Progress Graph for</a:t>
+              <a:t>Rate vs Concentration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Graph </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>for</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -1854,7 +1862,7 @@
                   <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44025700000000001</c:v>
+                  <c:v>0.38431399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.29223300000000002</c:v>
@@ -1877,11 +1885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105622912"/>
-        <c:axId val="105625088"/>
+        <c:axId val="166273792"/>
+        <c:axId val="166275712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105622912"/>
+        <c:axId val="166273792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105625088"/>
+        <c:crossAx val="166275712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +1949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105625088"/>
+        <c:axId val="166275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1971,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="1400" baseline="0"/>
-                  <a:t> Rate of Reaction (ml)</a:t>
+                  <a:t> Rate of Reaction (ml s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1985,7 +2001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105622912"/>
+        <c:crossAx val="166273792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2178,11 +2194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100522240"/>
-        <c:axId val="100528512"/>
+        <c:axId val="102395264"/>
+        <c:axId val="102397440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100522240"/>
+        <c:axId val="102395264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100528512"/>
+        <c:crossAx val="102397440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2230,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100528512"/>
+        <c:axId val="102397440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2271,7 +2287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100522240"/>
+        <c:crossAx val="102395264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2625,11 +2641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100952704"/>
-        <c:axId val="100971264"/>
+        <c:axId val="108003328"/>
+        <c:axId val="108005248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100952704"/>
+        <c:axId val="108003328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100971264"/>
+        <c:crossAx val="108005248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2665,7 +2681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100971264"/>
+        <c:axId val="108005248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100952704"/>
+        <c:crossAx val="108003328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2881,11 +2897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100992896"/>
-        <c:axId val="100999168"/>
+        <c:axId val="108022784"/>
+        <c:axId val="108041344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100992896"/>
+        <c:axId val="108022784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100999168"/>
+        <c:crossAx val="108041344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2933,7 +2949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100999168"/>
+        <c:axId val="108041344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2974,7 +2990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100992896"/>
+        <c:crossAx val="108022784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3328,11 +3344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101046912"/>
-        <c:axId val="105382656"/>
+        <c:axId val="108088704"/>
+        <c:axId val="108094976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101046912"/>
+        <c:axId val="108088704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105382656"/>
+        <c:crossAx val="108094976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3368,7 +3384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105382656"/>
+        <c:axId val="108094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3397,7 +3413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101046912"/>
+        <c:crossAx val="108088704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3581,11 +3597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105416192"/>
-        <c:axId val="105418112"/>
+        <c:axId val="108124800"/>
+        <c:axId val="108331776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105416192"/>
+        <c:axId val="108124800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +3641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105418112"/>
+        <c:crossAx val="108331776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3633,7 +3649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105418112"/>
+        <c:axId val="108331776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3674,7 +3690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105416192"/>
+        <c:crossAx val="108124800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3734,6 +3750,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4028,11 +4045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98616832"/>
-        <c:axId val="98618752"/>
+        <c:axId val="143161984"/>
+        <c:axId val="143164160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98616832"/>
+        <c:axId val="143161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,13 +4071,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98618752"/>
+        <c:crossAx val="143164160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4068,7 +4086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98618752"/>
+        <c:axId val="143164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4091,19 +4109,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98616832"/>
+        <c:crossAx val="143161984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4161,6 +4181,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4285,11 +4306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98677504"/>
-        <c:axId val="98679424"/>
+        <c:axId val="149231488"/>
+        <c:axId val="149233664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98677504"/>
+        <c:axId val="149231488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,6 +4334,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4329,7 +4351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98679424"/>
+        <c:crossAx val="149233664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4337,7 +4359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98679424"/>
+        <c:axId val="149233664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4361,6 +4383,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4377,7 +4400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98677504"/>
+        <c:crossAx val="149231488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4437,6 +4460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4731,11 +4755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98772480"/>
-        <c:axId val="98774400"/>
+        <c:axId val="149559936"/>
+        <c:axId val="149562112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98772480"/>
+        <c:axId val="149559936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,13 +4781,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98774400"/>
+        <c:crossAx val="149562112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4771,7 +4796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98774400"/>
+        <c:axId val="149562112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4794,19 +4819,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98772480"/>
+        <c:crossAx val="149559936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5399,15 +5426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>481263</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145382</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5416,8 +5443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5153025" y="3952875"/>
-          <a:ext cx="4829175" cy="2771779"/>
+          <a:off x="5142560" y="3958828"/>
+          <a:ext cx="5430190" cy="2717132"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7604,10 +7631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F15"/>
+    <sheetView topLeftCell="E16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,6 +8125,20 @@
       <c r="F24">
         <f>100/227.14</f>
         <v>0.44025711015232899</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>98/255</f>
+        <v>0.3843137254901961</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -9116,8 +9157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9164,7 +9205,7 @@
         <v>3.2</v>
       </c>
       <c r="D7" s="17">
-        <v>0.44025700000000001</v>
+        <v>0.38431399999999999</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
